--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H2">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I2">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J2">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>332.4366268947963</v>
+        <v>1021.453588723045</v>
       </c>
       <c r="R2">
-        <v>2991.929642053167</v>
+        <v>9193.082298507405</v>
       </c>
       <c r="S2">
-        <v>0.01153999032754917</v>
+        <v>0.02075238758862678</v>
       </c>
       <c r="T2">
-        <v>0.01153999032754917</v>
+        <v>0.02075238758862677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H3">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I3">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J3">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>2372.695795205207</v>
+        <v>4016.544569778713</v>
       </c>
       <c r="R3">
-        <v>21354.26215684687</v>
+        <v>36148.90112800842</v>
       </c>
       <c r="S3">
-        <v>0.08236422918449866</v>
+        <v>0.08160222901878919</v>
       </c>
       <c r="T3">
-        <v>0.08236422918449871</v>
+        <v>0.08160222901878919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H4">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I4">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J4">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>2320.269267417574</v>
+        <v>3717.678604197484</v>
       </c>
       <c r="R4">
-        <v>20882.42340675816</v>
+        <v>33459.10743777735</v>
       </c>
       <c r="S4">
-        <v>0.08054432856395802</v>
+        <v>0.07553031109391858</v>
       </c>
       <c r="T4">
-        <v>0.08054432856395805</v>
+        <v>0.0755303110939186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H5">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I5">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J5">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>676.8080179825425</v>
+        <v>965.6235680414419</v>
       </c>
       <c r="R5">
-        <v>6091.272161842884</v>
+        <v>8690.612112372975</v>
       </c>
       <c r="S5">
-        <v>0.02349427634999422</v>
+        <v>0.01961811556583806</v>
       </c>
       <c r="T5">
-        <v>0.02349427634999423</v>
+        <v>0.01961811556583806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H6">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I6">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J6">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>1007.242055377052</v>
+        <v>1860.612264261183</v>
       </c>
       <c r="R6">
-        <v>9065.17849839347</v>
+        <v>16745.51037835065</v>
       </c>
       <c r="S6">
-        <v>0.03496475007920938</v>
+        <v>0.03780117597743323</v>
       </c>
       <c r="T6">
-        <v>0.03496475007920939</v>
+        <v>0.03780117597743322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H7">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I7">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J7">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>2651.336590224711</v>
+        <v>5041.428243646783</v>
       </c>
       <c r="R7">
-        <v>23862.02931202241</v>
+        <v>45372.85419282104</v>
       </c>
       <c r="S7">
-        <v>0.09203678575391445</v>
+        <v>0.1024243040187457</v>
       </c>
       <c r="T7">
-        <v>0.09203678575391451</v>
+        <v>0.1024243040187457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>108.6236305677545</v>
+        <v>197.162154807751</v>
       </c>
       <c r="R8">
-        <v>977.6126751097909</v>
+        <v>1774.459393269759</v>
       </c>
       <c r="S8">
-        <v>0.003770690545755815</v>
+        <v>0.004005649889090229</v>
       </c>
       <c r="T8">
-        <v>0.003770690545755816</v>
+        <v>0.004005649889090229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>775.2780850757374</v>
@@ -1013,10 +1013,10 @@
         <v>6977.502765681636</v>
       </c>
       <c r="S9">
-        <v>0.02691250265202019</v>
+        <v>0.01575095676209168</v>
       </c>
       <c r="T9">
-        <v>0.0269125026520202</v>
+        <v>0.01575095676209168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>758.1477229987686</v>
+        <v>717.5906302337033</v>
       </c>
       <c r="R10">
-        <v>6823.329506988917</v>
+        <v>6458.31567210333</v>
       </c>
       <c r="S10">
-        <v>0.02631785032829115</v>
+        <v>0.01457894813135213</v>
       </c>
       <c r="T10">
-        <v>0.02631785032829115</v>
+        <v>0.01457894813135213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>221.1469439975258</v>
+        <v>186.3857795499117</v>
       </c>
       <c r="R11">
-        <v>1990.322495977732</v>
+        <v>1677.472015949205</v>
       </c>
       <c r="S11">
-        <v>0.00767675216337136</v>
+        <v>0.003786711389465647</v>
       </c>
       <c r="T11">
-        <v>0.007676752163371361</v>
+        <v>0.003786711389465646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>329.1162286705759</v>
+        <v>359.1375343270034</v>
       </c>
       <c r="R12">
-        <v>2962.046058035183</v>
+        <v>3232.23780894303</v>
       </c>
       <c r="S12">
-        <v>0.01142472816841518</v>
+        <v>0.007296426770887297</v>
       </c>
       <c r="T12">
-        <v>0.01142472816841518</v>
+        <v>0.007296426770887295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>866.3239336093961</v>
+        <v>973.1023188911236</v>
       </c>
       <c r="R13">
-        <v>7796.915402484565</v>
+        <v>8757.920870020111</v>
       </c>
       <c r="S13">
-        <v>0.03007300942666757</v>
+        <v>0.01977005779603316</v>
       </c>
       <c r="T13">
-        <v>0.03007300942666758</v>
+        <v>0.01977005779603316</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H14">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>256.4264341946647</v>
+        <v>698.611778119008</v>
       </c>
       <c r="R14">
-        <v>2307.837907751982</v>
+        <v>6287.506003071071</v>
       </c>
       <c r="S14">
-        <v>0.008901421597178027</v>
+        <v>0.0141933638038608</v>
       </c>
       <c r="T14">
-        <v>0.008901421597178029</v>
+        <v>0.0141933638038608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H15">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>1830.189193881119</v>
+        <v>2747.070816301344</v>
       </c>
       <c r="R15">
-        <v>16471.70274493008</v>
+        <v>24723.63734671209</v>
       </c>
       <c r="S15">
-        <v>0.06353200545996675</v>
+        <v>0.05581093349973823</v>
       </c>
       <c r="T15">
-        <v>0.06353200545996678</v>
+        <v>0.05581093349973823</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H16">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>1789.749764257004</v>
+        <v>2542.66477579296</v>
       </c>
       <c r="R16">
-        <v>16107.74787831304</v>
+        <v>22883.98298213664</v>
       </c>
       <c r="S16">
-        <v>0.062128217221971</v>
+        <v>0.05165811302417507</v>
       </c>
       <c r="T16">
-        <v>0.06212821722197102</v>
+        <v>0.05165811302417508</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H17">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>522.0588005200294</v>
+        <v>660.42745878096</v>
       </c>
       <c r="R17">
-        <v>4698.529204680264</v>
+        <v>5943.84712902864</v>
       </c>
       <c r="S17">
-        <v>0.01812241197574058</v>
+        <v>0.01341759111730957</v>
       </c>
       <c r="T17">
-        <v>0.01812241197574058</v>
+        <v>0.01341759111730957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H18">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>776.9405286168408</v>
+        <v>1272.544985573472</v>
       </c>
       <c r="R18">
-        <v>6992.464757551566</v>
+        <v>11452.90487016125</v>
       </c>
       <c r="S18">
-        <v>0.02697021164324545</v>
+        <v>0.02585369228336469</v>
       </c>
       <c r="T18">
-        <v>0.02697021164324546</v>
+        <v>0.02585369228336469</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H19">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>2045.119979803904</v>
+        <v>3448.028562860544</v>
       </c>
       <c r="R19">
-        <v>18406.07981823513</v>
+        <v>31032.25706574489</v>
       </c>
       <c r="S19">
-        <v>0.07099297392727824</v>
+        <v>0.07005195923056177</v>
       </c>
       <c r="T19">
-        <v>0.07099297392727827</v>
+        <v>0.07005195923056177</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H20">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>26.46577742975778</v>
+        <v>29.100134836496</v>
       </c>
       <c r="R20">
-        <v>238.19199686782</v>
+        <v>261.901213528464</v>
       </c>
       <c r="S20">
-        <v>0.0009187159020450721</v>
+        <v>0.0005912136230910094</v>
       </c>
       <c r="T20">
-        <v>0.0009187159020450723</v>
+        <v>0.0005912136230910095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H21">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>188.8938635040822</v>
+        <v>114.4271162662169</v>
       </c>
       <c r="R21">
-        <v>1700.04477153674</v>
+        <v>1029.844046395952</v>
       </c>
       <c r="S21">
-        <v>0.006557139561099977</v>
+        <v>0.002324761392609143</v>
       </c>
       <c r="T21">
-        <v>0.006557139561099981</v>
+        <v>0.002324761392609143</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H22">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>184.7201091593733</v>
+        <v>105.9127402901867</v>
       </c>
       <c r="R22">
-        <v>1662.48098243436</v>
+        <v>953.2146626116802</v>
       </c>
       <c r="S22">
-        <v>0.006412254548827399</v>
+        <v>0.00215177885842395</v>
       </c>
       <c r="T22">
-        <v>0.006412254548827402</v>
+        <v>0.00215177885842395</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H23">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>53.88169929984889</v>
+        <v>27.50959646285334</v>
       </c>
       <c r="R23">
-        <v>484.93529369864</v>
+        <v>247.5863681656801</v>
       </c>
       <c r="S23">
-        <v>0.001870414504443109</v>
+        <v>0.0005588994101215484</v>
       </c>
       <c r="T23">
-        <v>0.001870414504443109</v>
+        <v>0.0005588994101215484</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H24">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>80.18804758218444</v>
+        <v>53.00687996615289</v>
       </c>
       <c r="R24">
-        <v>721.69242823966</v>
+        <v>477.061919695376</v>
       </c>
       <c r="S24">
-        <v>0.002783596086048321</v>
+        <v>0.001076915613265007</v>
       </c>
       <c r="T24">
-        <v>0.002783596086048322</v>
+        <v>0.001076915613265007</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H25">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>211.0768742412556</v>
+        <v>143.6249706088391</v>
       </c>
       <c r="R25">
-        <v>1899.6918681713</v>
+        <v>1292.624735479552</v>
       </c>
       <c r="S25">
-        <v>0.007327186266645186</v>
+        <v>0.002917960336510113</v>
       </c>
       <c r="T25">
-        <v>0.00732718626664519</v>
+        <v>0.002917960336510113</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H26">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>143.815721699006</v>
+        <v>273.234726876409</v>
       </c>
       <c r="R26">
-        <v>1294.341495291054</v>
+        <v>2459.112541887681</v>
       </c>
       <c r="S26">
-        <v>0.004992326064844966</v>
+        <v>0.005551180217498109</v>
       </c>
       <c r="T26">
-        <v>0.004992326064844967</v>
+        <v>0.005551180217498109</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H27">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>1026.454158637642</v>
+        <v>1074.409518578698</v>
       </c>
       <c r="R27">
-        <v>9238.087427738779</v>
+        <v>9669.685667208283</v>
       </c>
       <c r="S27">
-        <v>0.03563166662167942</v>
+        <v>0.02182826807268724</v>
       </c>
       <c r="T27">
-        <v>0.03563166662167944</v>
+        <v>0.02182826807268724</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H28">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>1003.773869162988</v>
+        <v>994.4640747721635</v>
       </c>
       <c r="R28">
-        <v>9033.964822466893</v>
+        <v>8950.176672949472</v>
       </c>
       <c r="S28">
-        <v>0.03484435770326006</v>
+        <v>0.02020405444797225</v>
       </c>
       <c r="T28">
-        <v>0.03484435770326007</v>
+        <v>0.02020405444797225</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H29">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>292.794552955912</v>
+        <v>258.3004208826217</v>
       </c>
       <c r="R29">
-        <v>2635.150976603208</v>
+        <v>2324.703787943595</v>
       </c>
       <c r="S29">
-        <v>0.01016388097975614</v>
+        <v>0.005247767013245069</v>
       </c>
       <c r="T29">
-        <v>0.01016388097975614</v>
+        <v>0.005247767013245068</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H30">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>435.7439325284781</v>
+        <v>497.7062976339922</v>
       </c>
       <c r="R30">
-        <v>3921.695392756302</v>
+        <v>4479.356678705929</v>
       </c>
       <c r="S30">
-        <v>0.01512613340364027</v>
+        <v>0.01011166254427005</v>
       </c>
       <c r="T30">
-        <v>0.01512613340364027</v>
+        <v>0.01011166254427005</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H31">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>1146.99721493329</v>
+        <v>1348.561779436201</v>
       </c>
       <c r="R31">
-        <v>10322.97493439961</v>
+        <v>12137.05601492581</v>
       </c>
       <c r="S31">
-        <v>0.03981612041276308</v>
+        <v>0.02739808939244551</v>
       </c>
       <c r="T31">
-        <v>0.0398161204127631</v>
+        <v>0.0273980893924455</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H32">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I32">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J32">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>155.2888846767174</v>
+        <v>804.918874107343</v>
       </c>
       <c r="R32">
-        <v>1397.599962090457</v>
+        <v>7244.269866966087</v>
       </c>
       <c r="S32">
-        <v>0.005390598033327803</v>
+        <v>0.01635315459976885</v>
       </c>
       <c r="T32">
-        <v>0.005390598033327804</v>
+        <v>0.01635315459976885</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H33">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I33">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J33">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>1108.341421810766</v>
+        <v>3165.089993907526</v>
       </c>
       <c r="R33">
-        <v>9975.072796296898</v>
+        <v>28485.80994516774</v>
       </c>
       <c r="S33">
-        <v>0.03847424818013802</v>
+        <v>0.06430363066085673</v>
       </c>
       <c r="T33">
-        <v>0.03847424818013803</v>
+        <v>0.06430363066085673</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H34">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I34">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J34">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>1083.851770644287</v>
+        <v>2929.579678822743</v>
       </c>
       <c r="R34">
-        <v>9754.665935798585</v>
+        <v>26366.21710940469</v>
       </c>
       <c r="S34">
-        <v>0.03762413024871147</v>
+        <v>0.05951887940664757</v>
       </c>
       <c r="T34">
-        <v>0.03762413024871148</v>
+        <v>0.05951887940664758</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H35">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I35">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J35">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>316.1527754462182</v>
+        <v>760.9240828759517</v>
       </c>
       <c r="R35">
-        <v>2845.374979015964</v>
+        <v>6848.316745883565</v>
       </c>
       <c r="S35">
-        <v>0.0109747232269679</v>
+        <v>0.01545933331450035</v>
       </c>
       <c r="T35">
-        <v>0.0109747232269679</v>
+        <v>0.01545933331450035</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H36">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I36">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J36">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>470.5062039643601</v>
+        <v>1466.186956934265</v>
       </c>
       <c r="R36">
-        <v>4234.555835679241</v>
+        <v>13195.68261240838</v>
       </c>
       <c r="S36">
-        <v>0.01633284843946774</v>
+        <v>0.02978782427670238</v>
       </c>
       <c r="T36">
-        <v>0.01633284843946774</v>
+        <v>0.02978782427670238</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H37">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I37">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J37">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>1238.501021516084</v>
+        <v>3972.711820262046</v>
       </c>
       <c r="R37">
-        <v>11146.50919364476</v>
+        <v>35754.40638235841</v>
       </c>
       <c r="S37">
-        <v>0.0429925244473087</v>
+        <v>0.08071169985810336</v>
       </c>
       <c r="T37">
-        <v>0.04299252444730872</v>
+        <v>0.08071169985810336</v>
       </c>
     </row>
   </sheetData>
